--- a/biology/Botanique/Tillandsia_calothyrsus/Tillandsia_calothyrsus.xlsx
+++ b/biology/Botanique/Tillandsia_calothyrsus/Tillandsia_calothyrsus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia calothyrsus est une espèce de plantes, de la famille des Bromeliaceae, endémique du sud-ouest du Mexique. L'épithète calothyrsus signifie « à beau thyrse » et se rapporte à l'aspect et à la typologie de l'inflorescence (un thyrse est une grappe de cymes). Il s'agit ici d'un substantif utilisé adjectivement, qui ne doit donc pas être corrigé en « calothyrsa ».
 </t>
@@ -511,13 +523,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia calothyrsus Mez in C.DC., in Monogr. Phan. 9: 704, n° 46 (1896)
-Diagnose originale[1]
+Diagnose originale
 « foliis rosulatis, utrinque dense lepidibus orbicularibus, subadpressis tessellatis; inflorescentia amplissima thyrsoidea ; bracteis primariis (laminis inferiorum neglectis) quam spicae flabellatae, +/- 8-florae brevioribus ; bracteis florigeris dense imbricatis dorso tenuiter lepidotis laevibus, apice sueto obtusiusculis, sepala aequantibus ; floribus erectis ; sepalis antico libero posticis usque ad 20 mm. connatis ; petalis tubulose erectis; stylo perlongo. »
 Type :
-leg. W.F. Karwinsky, s.n. ; « Mexico, prope Guayimapo »[1] ; Lectotypus M (Herb. Monac. / Bot. St.-Saml. München) Nb : Mez cite un seul spécimen de Karwinsky, donc apparemment un holotype mais l’incertitude sur plusieurs spécimens explique cette lectotypification.
+leg. W.F. Karwinsky, s.n. ; « Mexico, prope Guayimapo » ; Lectotypus M (Herb. Monac. / Bot. St.-Saml. München) Nb : Mez cite un seul spécimen de Karwinsky, donc apparemment un holotype mais l’incertitude sur plusieurs spécimens explique cette lectotypification.
 leg. W.F. Karwinsky, s.n. ; « Mexico » ; Isotypus B (B 10 0243361)
 leg. W.F. Karwinsky, s.n. ; « Mexico » ; Typus (fragm. ex M) GH (Gray Herbarium) (GH 29358)
 Syntypus (2 tab.) M (Herb. Monac. / Bot. St.-Saml. München)</t>
@@ -548,9 +562,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia rettigiana Mez (d'après Gardner[2] )
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia rettigiana Mez (d'après Gardner )
 Il ne faut pas confondre ou mettre en synonymie nomenclaturale Tillandsia calothyrsus Mez avec Guzmania calothyrsus Mez, publiée par le même auteur dans le même document [in C.DC., Monogr. Phan. 9: 910, n°13 (1896) ], plantes différentes bien qu'appartenant à des genres voisins.
 </t>
         </is>
@@ -580,9 +596,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre dans les forêts[1] du sud-ouest[2] du Mexique[1] à 2 100 mètres d'altitude[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans les forêts du sud-ouest du Mexique à 2 100 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia rettigiana est une plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux et épiphyte[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia rettigiana est une plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux et épiphyte.
 </t>
         </is>
       </c>
